--- a/Clases/Bloque_1_-_Adquisición/Matriz.xlsx
+++ b/Clases/Bloque_1_-_Adquisición/Matriz.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nereida.combariza\Documents\00_Equipo\Acamica\Acamica\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus-PC\Documents\Acamica_ds_bog-3\Clases\Bloque_1_-_Adquisición\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16415DFF-ED65-43FF-9C54-7004A5491463}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F241E5F-28F1-44DD-8549-A90D8DDEEBDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{7142B5E5-05A7-48CE-8DBD-EE5B16B333E9}"/>
   </bookViews>
@@ -27,7 +27,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -229,55 +231,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>73914</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>157464</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0D6EE0D-C775-4896-997E-C3C3E697927C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="838200" y="0"/>
-          <a:ext cx="18285714" cy="10285714"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1928,12 +1881,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4C979AD-9814-4C76-8BAE-DD9F64BB46B4}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2135,18 +2087,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2169,6 +2121,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D36AA828-4F51-4379-BC2B-CA7ACE31CCDD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80FFCF0D-05F3-4214-A967-A32CFDC5521D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -2183,12 +2143,4 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D36AA828-4F51-4379-BC2B-CA7ACE31CCDD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>